--- a/biology/Zoologie/Aptychus/Aptychus.xlsx
+++ b/biology/Zoologie/Aptychus/Aptychus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un aptychus désigne soit une écoutille bivalve se refermant sur les coquilles d'ammonites disparues soit un morceau de mâchoire de certains céphalopodes modernes. Lorsqu'une simple écoutille est présente, le terme anaptycus est employé.
 Située contre l'ouverture terminale de la coquille (la chambre de vie), l'aptychus était fait d'aragonite ou de calcite, tout comme la coquille, et était composé de deux valves identiques. La fonction exacte de ce dispositif reste incertaine. Certains auteurs considèrent l'aptychus comme étant un dispositif de mâchoire, tandis que d'autres pensent qu'il s'agit d'un opercule (mandibules). Il pourrait avoir eu une fonction similaire à celle de la carapace à la tête des nautiles actuels.
